--- a/data/trans_dic/P78C6_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P78C6_2023-Estudios-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>80,41%</t>
+          <t>79,78%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>85,69%</t>
+          <t>84,96%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>83,57%</t>
+          <t>82,87%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>69,89; 87,48</t>
+          <t>69,19; 87,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>77,78; 89,91</t>
+          <t>76,6; 89,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>78,25; 88,13</t>
+          <t>77,51; 87,5</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>91,51%</t>
+          <t>90,9%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>84,45%</t>
+          <t>82,44%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>87,81%</t>
+          <t>86,54%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>85,83; 95,35</t>
+          <t>84,86; 95,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>76,59; 89,73</t>
+          <t>72,64; 88,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>82,9; 91,21</t>
+          <t>81,0; 90,57</t>
         </is>
       </c>
     </row>
@@ -661,12 +661,12 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>81,12%</t>
+          <t>80,33%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>87,33%</t>
+          <t>86,75%</t>
         </is>
       </c>
     </row>
@@ -684,12 +684,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>59,72; 93,11</t>
+          <t>59,11; 92,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>71,48; 96,25</t>
+          <t>70,6; 95,96</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>88,44%</t>
+          <t>87,91%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>84,66%</t>
+          <t>83,21%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>86,33%</t>
+          <t>85,31%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>83,66; 91,69</t>
+          <t>82,76; 91,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>79,5; 88,58</t>
+          <t>77,08; 87,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>83,23; 88,97</t>
+          <t>81,78; 88,22</t>
         </is>
       </c>
     </row>
